--- a/Code/Results/Cases/Case_3_219/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_219/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006416812971906</v>
+        <v>1.033575495278463</v>
       </c>
       <c r="D2">
-        <v>1.029725335177681</v>
+        <v>1.043705930972616</v>
       </c>
       <c r="E2">
-        <v>1.023016199759606</v>
+        <v>1.043365700692434</v>
       </c>
       <c r="F2">
-        <v>1.036288564444829</v>
+        <v>1.055482981067455</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053014836992458</v>
+        <v>1.038939204012973</v>
       </c>
       <c r="J2">
-        <v>1.028407277647301</v>
+        <v>1.038699467832343</v>
       </c>
       <c r="K2">
-        <v>1.040785517628296</v>
+        <v>1.046479042136435</v>
       </c>
       <c r="L2">
-        <v>1.034163931030159</v>
+        <v>1.046139770677589</v>
       </c>
       <c r="M2">
-        <v>1.047264472504822</v>
+        <v>1.058223315619796</v>
       </c>
       <c r="N2">
-        <v>1.013367464671383</v>
+        <v>1.01687301748773</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010486718090135</v>
+        <v>1.034441840983624</v>
       </c>
       <c r="D3">
-        <v>1.032859520301564</v>
+        <v>1.044384326505453</v>
       </c>
       <c r="E3">
-        <v>1.026342134919373</v>
+        <v>1.04412026524071</v>
       </c>
       <c r="F3">
-        <v>1.03987179283814</v>
+        <v>1.056286249143655</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054193654593394</v>
+        <v>1.039108097939357</v>
       </c>
       <c r="J3">
-        <v>1.030695530367765</v>
+        <v>1.039209006071903</v>
       </c>
       <c r="K3">
-        <v>1.043088536227328</v>
+        <v>1.04696887389699</v>
       </c>
       <c r="L3">
-        <v>1.03664870250101</v>
+        <v>1.046705503148035</v>
       </c>
       <c r="M3">
-        <v>1.050018710650845</v>
+        <v>1.058840059859621</v>
       </c>
       <c r="N3">
-        <v>1.014130844006704</v>
+        <v>1.017042306086185</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013070329641926</v>
+        <v>1.0350029481864</v>
       </c>
       <c r="D4">
-        <v>1.034849402756947</v>
+        <v>1.044823394183295</v>
       </c>
       <c r="E4">
-        <v>1.028458607761761</v>
+        <v>1.044609280838899</v>
       </c>
       <c r="F4">
-        <v>1.042149747040262</v>
+        <v>1.056806568387231</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054928288373917</v>
+        <v>1.039215789032922</v>
       </c>
       <c r="J4">
-        <v>1.032145502992509</v>
+        <v>1.039538586840911</v>
       </c>
       <c r="K4">
-        <v>1.044544661327932</v>
+        <v>1.047285248314255</v>
       </c>
       <c r="L4">
-        <v>1.038225279350406</v>
+        <v>1.047071666756367</v>
       </c>
       <c r="M4">
-        <v>1.051764744748437</v>
+        <v>1.059239029646311</v>
       </c>
       <c r="N4">
-        <v>1.014614501115563</v>
+        <v>1.017151780011684</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014144915587704</v>
+        <v>1.035238961474635</v>
       </c>
       <c r="D5">
-        <v>1.035677059332466</v>
+        <v>1.045008000436116</v>
       </c>
       <c r="E5">
-        <v>1.029340094551996</v>
+        <v>1.04481504359045</v>
       </c>
       <c r="F5">
-        <v>1.043097948755507</v>
+        <v>1.057025440583717</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055230507377999</v>
+        <v>1.039260679738921</v>
       </c>
       <c r="J5">
-        <v>1.032747920367772</v>
+        <v>1.039677111509133</v>
       </c>
       <c r="K5">
-        <v>1.045148850878552</v>
+        <v>1.047418111954618</v>
       </c>
       <c r="L5">
-        <v>1.038880794780393</v>
+        <v>1.047225623704436</v>
       </c>
       <c r="M5">
-        <v>1.052490347698578</v>
+        <v>1.059406729780138</v>
       </c>
       <c r="N5">
-        <v>1.014815427600686</v>
+        <v>1.017197786326697</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014324675867238</v>
+        <v>1.03527859636062</v>
       </c>
       <c r="D6">
-        <v>1.035815512038239</v>
+        <v>1.045038997886656</v>
       </c>
       <c r="E6">
-        <v>1.029487621724709</v>
+        <v>1.044849602599507</v>
       </c>
       <c r="F6">
-        <v>1.043256609681635</v>
+        <v>1.057062197754437</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055280866278962</v>
+        <v>1.039268194622571</v>
       </c>
       <c r="J6">
-        <v>1.032848655022351</v>
+        <v>1.039700368550501</v>
       </c>
       <c r="K6">
-        <v>1.045249835338851</v>
+        <v>1.04744041208335</v>
       </c>
       <c r="L6">
-        <v>1.03899043761905</v>
+        <v>1.047251474988434</v>
       </c>
       <c r="M6">
-        <v>1.052611691593342</v>
+        <v>1.059434885753485</v>
       </c>
       <c r="N6">
-        <v>1.014849024908792</v>
+        <v>1.01720551000724</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013084733261426</v>
+        <v>1.035006101322898</v>
       </c>
       <c r="D7">
-        <v>1.03486049656257</v>
+        <v>1.044825860816162</v>
       </c>
       <c r="E7">
-        <v>1.028470418433856</v>
+        <v>1.044612029543514</v>
       </c>
       <c r="F7">
-        <v>1.042162453730963</v>
+        <v>1.056809492459926</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054932352505188</v>
+        <v>1.039216390369322</v>
       </c>
       <c r="J7">
-        <v>1.03215358037105</v>
+        <v>1.039540437938059</v>
       </c>
       <c r="K7">
-        <v>1.044552765585833</v>
+        <v>1.04728702419728</v>
       </c>
       <c r="L7">
-        <v>1.038234066715234</v>
+        <v>1.047073723852906</v>
       </c>
       <c r="M7">
-        <v>1.051774473125188</v>
+        <v>1.059241270570932</v>
       </c>
       <c r="N7">
-        <v>1.014617195265528</v>
+        <v>1.017152394815815</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007802820193583</v>
+        <v>1.033868171530305</v>
       </c>
       <c r="D8">
-        <v>1.030792594959181</v>
+        <v>1.043935176027402</v>
       </c>
       <c r="E8">
-        <v>1.024147747304565</v>
+        <v>1.043620550480458</v>
       </c>
       <c r="F8">
-        <v>1.037508117876507</v>
+        <v>1.055754334001188</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05341912199716</v>
+        <v>1.038996612140474</v>
       </c>
       <c r="J8">
-        <v>1.029187075279416</v>
+        <v>1.038871693690315</v>
       </c>
       <c r="K8">
-        <v>1.041571009975931</v>
+        <v>1.046644702198482</v>
       </c>
       <c r="L8">
-        <v>1.03501026252552</v>
+        <v>1.046330941701963</v>
       </c>
       <c r="M8">
-        <v>1.048202900930254</v>
+        <v>1.058431767979011</v>
       </c>
       <c r="N8">
-        <v>1.013627623879521</v>
+        <v>1.016930242986027</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9980953933059844</v>
+        <v>1.031867071594625</v>
       </c>
       <c r="D9">
-        <v>1.023320870310713</v>
+        <v>1.042366525522974</v>
       </c>
       <c r="E9">
-        <v>1.016245917392891</v>
+        <v>1.041879352237226</v>
       </c>
       <c r="F9">
-        <v>1.028982280292791</v>
+        <v>1.053899316379704</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050531603729955</v>
+        <v>1.038597161323086</v>
       </c>
       <c r="J9">
-        <v>1.023715587881371</v>
+        <v>1.037692383061638</v>
       </c>
       <c r="K9">
-        <v>1.036046583711481</v>
+        <v>1.045508473792348</v>
       </c>
       <c r="L9">
-        <v>1.029080802268248</v>
+        <v>1.045022869343628</v>
       </c>
       <c r="M9">
-        <v>1.041622011332285</v>
+        <v>1.057004588954001</v>
       </c>
       <c r="N9">
-        <v>1.011802007157677</v>
+        <v>1.0165382891019</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.991328326987736</v>
+        <v>1.030535837085413</v>
       </c>
       <c r="D10">
-        <v>1.018118790085993</v>
+        <v>1.041321438669748</v>
       </c>
       <c r="E10">
-        <v>1.010769141128845</v>
+        <v>1.040722636899544</v>
       </c>
       <c r="F10">
-        <v>1.023061055701846</v>
+        <v>1.052665648585174</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048449849495951</v>
+        <v>1.038322728244628</v>
       </c>
       <c r="J10">
-        <v>1.019890273145229</v>
+        <v>1.036905647528477</v>
       </c>
       <c r="K10">
-        <v>1.032168432907127</v>
+        <v>1.044748131494854</v>
       </c>
       <c r="L10">
-        <v>1.024946640126357</v>
+        <v>1.044151446475254</v>
       </c>
       <c r="M10">
-        <v>1.037026055668333</v>
+        <v>1.056052740746718</v>
       </c>
       <c r="N10">
-        <v>1.010525489446598</v>
+        <v>1.016276681337881</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9883216823924549</v>
+        <v>1.029960088454666</v>
       </c>
       <c r="D11">
-        <v>1.01580980923014</v>
+        <v>1.040869088677685</v>
       </c>
       <c r="E11">
-        <v>1.008343926151005</v>
+        <v>1.040222757418995</v>
       </c>
       <c r="F11">
-        <v>1.020436203333605</v>
+        <v>1.052132195095098</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047509291261739</v>
+        <v>1.038201977655931</v>
       </c>
       <c r="J11">
-        <v>1.018188494649639</v>
+        <v>1.036564872766003</v>
       </c>
       <c r="K11">
-        <v>1.030439610043368</v>
+        <v>1.044418235072174</v>
       </c>
       <c r="L11">
-        <v>1.023110185248533</v>
+        <v>1.043774276779374</v>
       </c>
       <c r="M11">
-        <v>1.034982746192138</v>
+        <v>1.055640506422541</v>
       </c>
       <c r="N11">
-        <v>1.009957591181458</v>
+        <v>1.016163335555448</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9871928134321225</v>
+        <v>1.029746334142614</v>
       </c>
       <c r="D12">
-        <v>1.014943304724107</v>
+        <v>1.040701094550502</v>
       </c>
       <c r="E12">
-        <v>1.007434641656383</v>
+        <v>1.040037229855151</v>
       </c>
       <c r="F12">
-        <v>1.01945164455726</v>
+        <v>1.051934158758182</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047153865856077</v>
+        <v>1.038156838011599</v>
       </c>
       <c r="J12">
-        <v>1.017549263580715</v>
+        <v>1.036438278111318</v>
       </c>
       <c r="K12">
-        <v>1.029789707173862</v>
+        <v>1.04429559862627</v>
       </c>
       <c r="L12">
-        <v>1.022420778448479</v>
+        <v>1.043634204939841</v>
       </c>
       <c r="M12">
-        <v>1.034215434976721</v>
+        <v>1.055487374175847</v>
       </c>
       <c r="N12">
-        <v>1.009744275112268</v>
+        <v>1.016121224135772</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9874355154431487</v>
+        <v>1.029792180421397</v>
       </c>
       <c r="D13">
-        <v>1.015129579307697</v>
+        <v>1.040737128528416</v>
       </c>
       <c r="E13">
-        <v>1.007630075051282</v>
+        <v>1.040077019333564</v>
       </c>
       <c r="F13">
-        <v>1.019663275897057</v>
+        <v>1.051976633123408</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047230383047999</v>
+        <v>1.03816653361491</v>
       </c>
       <c r="J13">
-        <v>1.017686707711913</v>
+        <v>1.0364654337864</v>
       </c>
       <c r="K13">
-        <v>1.029929468790503</v>
+        <v>1.044321908982531</v>
       </c>
       <c r="L13">
-        <v>1.02256899242511</v>
+        <v>1.043664249635637</v>
       </c>
       <c r="M13">
-        <v>1.034380408667479</v>
+        <v>1.055520221992031</v>
       </c>
       <c r="N13">
-        <v>1.009790141141507</v>
+        <v>1.016130257612192</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9882286193838531</v>
+        <v>1.029942417318884</v>
       </c>
       <c r="D14">
-        <v>1.015738366349808</v>
+        <v>1.04085520163263</v>
       </c>
       <c r="E14">
-        <v>1.008268939091129</v>
+        <v>1.040207418583648</v>
       </c>
       <c r="F14">
-        <v>1.020355017167516</v>
+        <v>1.052115823052868</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047480036388008</v>
+        <v>1.038198252258856</v>
       </c>
       <c r="J14">
-        <v>1.018135802519472</v>
+        <v>1.036554408726095</v>
       </c>
       <c r="K14">
-        <v>1.030386048557622</v>
+        <v>1.044408099900931</v>
       </c>
       <c r="L14">
-        <v>1.02305334870984</v>
+        <v>1.043762697863356</v>
       </c>
       <c r="M14">
-        <v>1.034919492066385</v>
+        <v>1.055627848659207</v>
       </c>
       <c r="N14">
-        <v>1.00994000740114</v>
+        <v>1.016159854808641</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9887156598997562</v>
+        <v>1.030034997103981</v>
       </c>
       <c r="D15">
-        <v>1.016112276619297</v>
+        <v>1.040927954240093</v>
       </c>
       <c r="E15">
-        <v>1.008661432678969</v>
+        <v>1.040287781786991</v>
       </c>
       <c r="F15">
-        <v>1.020779940502521</v>
+        <v>1.05220159746693</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047633047469972</v>
+        <v>1.038217757091094</v>
       </c>
       <c r="J15">
-        <v>1.01841155274437</v>
+        <v>1.036609227075449</v>
       </c>
       <c r="K15">
-        <v>1.030666327508918</v>
+        <v>1.044461191996671</v>
       </c>
       <c r="L15">
-        <v>1.02335080441537</v>
+        <v>1.043823358523946</v>
       </c>
       <c r="M15">
-        <v>1.035250524211146</v>
+        <v>1.055694159715796</v>
       </c>
       <c r="N15">
-        <v>1.010032027481582</v>
+        <v>1.01617808933979</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9915262084750573</v>
+        <v>1.030574062179358</v>
       </c>
       <c r="D16">
-        <v>1.018270809555988</v>
+        <v>1.041351463587483</v>
       </c>
       <c r="E16">
-        <v>1.010928930718688</v>
+        <v>1.040755833180855</v>
       </c>
       <c r="F16">
-        <v>1.023233939749596</v>
+        <v>1.052701067741975</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048511431472233</v>
+        <v>1.038330701699381</v>
       </c>
       <c r="J16">
-        <v>1.020002233439024</v>
+        <v>1.036928261351744</v>
       </c>
       <c r="K16">
-        <v>1.032282100235525</v>
+        <v>1.044770011781809</v>
       </c>
       <c r="L16">
-        <v>1.02506751779413</v>
+        <v>1.044176481523254</v>
       </c>
       <c r="M16">
-        <v>1.037160513508508</v>
+        <v>1.056080097881017</v>
       </c>
       <c r="N16">
-        <v>1.010562851559985</v>
+        <v>1.016284202332231</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9932683225878123</v>
+        <v>1.030912387828276</v>
       </c>
       <c r="D17">
-        <v>1.019609436552182</v>
+        <v>1.041617169167022</v>
       </c>
       <c r="E17">
-        <v>1.012336625662237</v>
+        <v>1.041049694687434</v>
       </c>
       <c r="F17">
-        <v>1.024756669890705</v>
+        <v>1.053014569817539</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049051815337327</v>
+        <v>1.038401035627931</v>
       </c>
       <c r="J17">
-        <v>1.020987669928653</v>
+        <v>1.037128353735063</v>
       </c>
       <c r="K17">
-        <v>1.033282160611348</v>
+        <v>1.044963549716549</v>
       </c>
       <c r="L17">
-        <v>1.026131752287376</v>
+        <v>1.044398030666461</v>
       </c>
       <c r="M17">
-        <v>1.038344115841233</v>
+        <v>1.056322167019607</v>
       </c>
       <c r="N17">
-        <v>1.010891699324064</v>
+        <v>1.016350746350406</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.994277132019992</v>
+        <v>1.031109793418153</v>
       </c>
       <c r="D18">
-        <v>1.020384814662972</v>
+        <v>1.041772167933998</v>
       </c>
       <c r="E18">
-        <v>1.013152552411162</v>
+        <v>1.041221194135593</v>
       </c>
       <c r="F18">
-        <v>1.025639003987549</v>
+        <v>1.053197500849117</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049363247861504</v>
+        <v>1.038441874981573</v>
       </c>
       <c r="J18">
-        <v>1.021558099557049</v>
+        <v>1.037245053241888</v>
       </c>
       <c r="K18">
-        <v>1.033860718171828</v>
+        <v>1.045076373036824</v>
       </c>
       <c r="L18">
-        <v>1.026748053068162</v>
+        <v>1.044527272084308</v>
       </c>
       <c r="M18">
-        <v>1.039029378964119</v>
+        <v>1.056463354240652</v>
       </c>
       <c r="N18">
-        <v>1.011082054960118</v>
+        <v>1.016389553769374</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9946198826313833</v>
+        <v>1.031177114765809</v>
       </c>
       <c r="D19">
-        <v>1.020648289928598</v>
+        <v>1.041825021369264</v>
       </c>
       <c r="E19">
-        <v>1.013429898611856</v>
+        <v>1.041279687074429</v>
       </c>
       <c r="F19">
-        <v>1.025938877395313</v>
+        <v>1.053259887514999</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049468805081574</v>
+        <v>1.03845576870058</v>
       </c>
       <c r="J19">
-        <v>1.021751870659154</v>
+        <v>1.037284842854763</v>
       </c>
       <c r="K19">
-        <v>1.03405719252797</v>
+        <v>1.045114831960907</v>
       </c>
       <c r="L19">
-        <v>1.026957449989968</v>
+        <v>1.044571342662453</v>
       </c>
       <c r="M19">
-        <v>1.039262178809493</v>
+        <v>1.05651149409395</v>
       </c>
       <c r="N19">
-        <v>1.011146717222953</v>
+        <v>1.016402784966382</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9930821731302789</v>
+        <v>1.030876081854355</v>
       </c>
       <c r="D20">
-        <v>1.019466377773714</v>
+        <v>1.041588659680862</v>
       </c>
       <c r="E20">
-        <v>1.012186129488024</v>
+        <v>1.041018156289139</v>
       </c>
       <c r="F20">
-        <v>1.024593903256797</v>
+        <v>1.052980926697827</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04899422787551</v>
+        <v>1.038393508616826</v>
       </c>
       <c r="J20">
-        <v>1.020882394846854</v>
+        <v>1.037106886844187</v>
       </c>
       <c r="K20">
-        <v>1.033175358102238</v>
+        <v>1.044942791545941</v>
       </c>
       <c r="L20">
-        <v>1.026018032340426</v>
+        <v>1.044374258921368</v>
       </c>
       <c r="M20">
-        <v>1.038217657657722</v>
+        <v>1.05629619606759</v>
       </c>
       <c r="N20">
-        <v>1.010856568317055</v>
+        <v>1.016343607484465</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9879954079993655</v>
+        <v>1.029898173404132</v>
       </c>
       <c r="D21">
-        <v>1.015559340986506</v>
+        <v>1.040820431236613</v>
       </c>
       <c r="E21">
-        <v>1.008081046016269</v>
+        <v>1.040169015101207</v>
       </c>
       <c r="F21">
-        <v>1.020151584319705</v>
+        <v>1.052074831979369</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047406688487596</v>
+        <v>1.038188919838376</v>
       </c>
       <c r="J21">
-        <v>1.018003754155795</v>
+        <v>1.036528208248291</v>
       </c>
       <c r="K21">
-        <v>1.030251813352281</v>
+        <v>1.044382721523917</v>
       </c>
       <c r="L21">
-        <v>1.022910920961684</v>
+        <v>1.043733706591061</v>
       </c>
       <c r="M21">
-        <v>1.034760978346976</v>
+        <v>1.055596155553072</v>
       </c>
       <c r="N21">
-        <v>1.009895941841136</v>
+        <v>1.016151139437491</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9847270248796983</v>
+        <v>1.029283928111511</v>
       </c>
       <c r="D22">
-        <v>1.013051453098282</v>
+        <v>1.040337583057467</v>
       </c>
       <c r="E22">
-        <v>1.005450914185041</v>
+        <v>1.039635994690859</v>
       </c>
       <c r="F22">
-        <v>1.017302917164003</v>
+        <v>1.051505783463276</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046373380081244</v>
+        <v>1.038058623788829</v>
       </c>
       <c r="J22">
-        <v>1.016152515094261</v>
+        <v>1.036164279629479</v>
       </c>
       <c r="K22">
-        <v>1.028368717515469</v>
+        <v>1.044030015662946</v>
       </c>
       <c r="L22">
-        <v>1.020915155320625</v>
+        <v>1.043331115765947</v>
       </c>
       <c r="M22">
-        <v>1.032539220182201</v>
+        <v>1.055155954869089</v>
       </c>
       <c r="N22">
-        <v>1.00927817430061</v>
+        <v>1.016030070953026</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.986466507696048</v>
+        <v>1.029609493357416</v>
       </c>
       <c r="D23">
-        <v>1.014385929987588</v>
+        <v>1.040593533522712</v>
       </c>
       <c r="E23">
-        <v>1.006849983614793</v>
+        <v>1.039918475981007</v>
       </c>
       <c r="F23">
-        <v>1.01881846664869</v>
+        <v>1.0518073846637</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046924551880176</v>
+        <v>1.038127853537545</v>
       </c>
       <c r="J23">
-        <v>1.017137912278477</v>
+        <v>1.03635721322827</v>
       </c>
       <c r="K23">
-        <v>1.029371346187525</v>
+        <v>1.044217045045921</v>
       </c>
       <c r="L23">
-        <v>1.021977255152109</v>
+        <v>1.043544522103454</v>
       </c>
       <c r="M23">
-        <v>1.033721722820807</v>
+        <v>1.055389318484182</v>
       </c>
       <c r="N23">
-        <v>1.009607004740271</v>
+        <v>1.016094256822639</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9931663086866865</v>
+        <v>1.03089248675754</v>
       </c>
       <c r="D24">
-        <v>1.019531036602212</v>
+        <v>1.041601541837559</v>
       </c>
       <c r="E24">
-        <v>1.012254148143529</v>
+        <v>1.041032406840449</v>
       </c>
       <c r="F24">
-        <v>1.024667468536529</v>
+        <v>1.052996128357638</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049020260790322</v>
+        <v>1.038396910321587</v>
       </c>
       <c r="J24">
-        <v>1.020929977573582</v>
+        <v>1.037116586842257</v>
       </c>
       <c r="K24">
-        <v>1.033223632249693</v>
+        <v>1.044952171467876</v>
       </c>
       <c r="L24">
-        <v>1.02606943121695</v>
+        <v>1.044385000301847</v>
       </c>
       <c r="M24">
-        <v>1.038274814441188</v>
+        <v>1.056307931246605</v>
       </c>
       <c r="N24">
-        <v>1.010872446998575</v>
+        <v>1.01634683325108</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000655033043186</v>
+        <v>1.032383911339775</v>
       </c>
       <c r="D25">
-        <v>1.025290138843369</v>
+        <v>1.042771947336801</v>
       </c>
       <c r="E25">
-        <v>1.018324209328086</v>
+        <v>1.042328781786001</v>
       </c>
       <c r="F25">
-        <v>1.031226765263236</v>
+        <v>1.054378360676633</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051305096028276</v>
+        <v>1.038701866163696</v>
       </c>
       <c r="J25">
-        <v>1.025160372804507</v>
+        <v>1.037997361765189</v>
       </c>
       <c r="K25">
-        <v>1.037508145292305</v>
+        <v>1.045802725774883</v>
       </c>
       <c r="L25">
-        <v>1.030644572583809</v>
+        <v>1.045360933339335</v>
       </c>
       <c r="M25">
-        <v>1.043358921671911</v>
+        <v>1.05737362571549</v>
       </c>
       <c r="N25">
-        <v>1.012284111481059</v>
+        <v>1.016639674334007</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_219/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_219/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033575495278463</v>
+        <v>1.006416812971907</v>
       </c>
       <c r="D2">
-        <v>1.043705930972616</v>
+        <v>1.029725335177682</v>
       </c>
       <c r="E2">
-        <v>1.043365700692434</v>
+        <v>1.023016199759607</v>
       </c>
       <c r="F2">
-        <v>1.055482981067455</v>
+        <v>1.03628856444483</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038939204012973</v>
+        <v>1.053014836992458</v>
       </c>
       <c r="J2">
-        <v>1.038699467832343</v>
+        <v>1.028407277647302</v>
       </c>
       <c r="K2">
-        <v>1.046479042136435</v>
+        <v>1.040785517628297</v>
       </c>
       <c r="L2">
-        <v>1.046139770677589</v>
+        <v>1.03416393103016</v>
       </c>
       <c r="M2">
-        <v>1.058223315619796</v>
+        <v>1.047264472504823</v>
       </c>
       <c r="N2">
-        <v>1.01687301748773</v>
+        <v>1.013367464671383</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034441840983624</v>
+        <v>1.010486718090136</v>
       </c>
       <c r="D3">
-        <v>1.044384326505453</v>
+        <v>1.032859520301564</v>
       </c>
       <c r="E3">
-        <v>1.04412026524071</v>
+        <v>1.026342134919374</v>
       </c>
       <c r="F3">
-        <v>1.056286249143655</v>
+        <v>1.03987179283814</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039108097939357</v>
+        <v>1.054193654593394</v>
       </c>
       <c r="J3">
-        <v>1.039209006071903</v>
+        <v>1.030695530367766</v>
       </c>
       <c r="K3">
-        <v>1.04696887389699</v>
+        <v>1.043088536227328</v>
       </c>
       <c r="L3">
-        <v>1.046705503148035</v>
+        <v>1.036648702501011</v>
       </c>
       <c r="M3">
-        <v>1.058840059859621</v>
+        <v>1.050018710650845</v>
       </c>
       <c r="N3">
-        <v>1.017042306086185</v>
+        <v>1.014130844006704</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0350029481864</v>
+        <v>1.013070329641926</v>
       </c>
       <c r="D4">
-        <v>1.044823394183295</v>
+        <v>1.034849402756947</v>
       </c>
       <c r="E4">
-        <v>1.044609280838899</v>
+        <v>1.028458607761761</v>
       </c>
       <c r="F4">
-        <v>1.056806568387231</v>
+        <v>1.042149747040261</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039215789032922</v>
+        <v>1.054928288373917</v>
       </c>
       <c r="J4">
-        <v>1.039538586840911</v>
+        <v>1.032145502992509</v>
       </c>
       <c r="K4">
-        <v>1.047285248314255</v>
+        <v>1.044544661327931</v>
       </c>
       <c r="L4">
-        <v>1.047071666756367</v>
+        <v>1.038225279350406</v>
       </c>
       <c r="M4">
-        <v>1.059239029646311</v>
+        <v>1.051764744748436</v>
       </c>
       <c r="N4">
-        <v>1.017151780011684</v>
+        <v>1.014614501115563</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035238961474635</v>
+        <v>1.014144915587704</v>
       </c>
       <c r="D5">
-        <v>1.045008000436116</v>
+        <v>1.035677059332466</v>
       </c>
       <c r="E5">
-        <v>1.04481504359045</v>
+        <v>1.029340094551996</v>
       </c>
       <c r="F5">
-        <v>1.057025440583717</v>
+        <v>1.043097948755507</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039260679738921</v>
+        <v>1.055230507377998</v>
       </c>
       <c r="J5">
-        <v>1.039677111509133</v>
+        <v>1.032747920367772</v>
       </c>
       <c r="K5">
-        <v>1.047418111954618</v>
+        <v>1.045148850878552</v>
       </c>
       <c r="L5">
-        <v>1.047225623704436</v>
+        <v>1.038880794780393</v>
       </c>
       <c r="M5">
-        <v>1.059406729780138</v>
+        <v>1.052490347698578</v>
       </c>
       <c r="N5">
-        <v>1.017197786326697</v>
+        <v>1.014815427600686</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03527859636062</v>
+        <v>1.014324675867238</v>
       </c>
       <c r="D6">
-        <v>1.045038997886656</v>
+        <v>1.035815512038239</v>
       </c>
       <c r="E6">
-        <v>1.044849602599507</v>
+        <v>1.029487621724709</v>
       </c>
       <c r="F6">
-        <v>1.057062197754437</v>
+        <v>1.043256609681635</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039268194622571</v>
+        <v>1.055280866278963</v>
       </c>
       <c r="J6">
-        <v>1.039700368550501</v>
+        <v>1.032848655022352</v>
       </c>
       <c r="K6">
-        <v>1.04744041208335</v>
+        <v>1.045249835338851</v>
       </c>
       <c r="L6">
-        <v>1.047251474988434</v>
+        <v>1.03899043761905</v>
       </c>
       <c r="M6">
-        <v>1.059434885753485</v>
+        <v>1.052611691593343</v>
       </c>
       <c r="N6">
-        <v>1.01720551000724</v>
+        <v>1.014849024908792</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035006101322898</v>
+        <v>1.013084733261425</v>
       </c>
       <c r="D7">
-        <v>1.044825860816162</v>
+        <v>1.03486049656257</v>
       </c>
       <c r="E7">
-        <v>1.044612029543514</v>
+        <v>1.028470418433856</v>
       </c>
       <c r="F7">
-        <v>1.056809492459926</v>
+        <v>1.042162453730962</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039216390369322</v>
+        <v>1.054932352505187</v>
       </c>
       <c r="J7">
-        <v>1.039540437938059</v>
+        <v>1.032153580371049</v>
       </c>
       <c r="K7">
-        <v>1.04728702419728</v>
+        <v>1.044552765585832</v>
       </c>
       <c r="L7">
-        <v>1.047073723852906</v>
+        <v>1.038234066715233</v>
       </c>
       <c r="M7">
-        <v>1.059241270570932</v>
+        <v>1.051774473125188</v>
       </c>
       <c r="N7">
-        <v>1.017152394815815</v>
+        <v>1.014617195265528</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033868171530305</v>
+        <v>1.007802820193583</v>
       </c>
       <c r="D8">
-        <v>1.043935176027402</v>
+        <v>1.030792594959181</v>
       </c>
       <c r="E8">
-        <v>1.043620550480458</v>
+        <v>1.024147747304565</v>
       </c>
       <c r="F8">
-        <v>1.055754334001188</v>
+        <v>1.037508117876508</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038996612140474</v>
+        <v>1.05341912199716</v>
       </c>
       <c r="J8">
-        <v>1.038871693690315</v>
+        <v>1.029187075279416</v>
       </c>
       <c r="K8">
-        <v>1.046644702198482</v>
+        <v>1.041571009975931</v>
       </c>
       <c r="L8">
-        <v>1.046330941701963</v>
+        <v>1.03501026252552</v>
       </c>
       <c r="M8">
-        <v>1.058431767979011</v>
+        <v>1.048202900930254</v>
       </c>
       <c r="N8">
-        <v>1.016930242986027</v>
+        <v>1.013627623879521</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031867071594625</v>
+        <v>0.9980953933059846</v>
       </c>
       <c r="D9">
-        <v>1.042366525522974</v>
+        <v>1.023320870310713</v>
       </c>
       <c r="E9">
-        <v>1.041879352237226</v>
+        <v>1.016245917392891</v>
       </c>
       <c r="F9">
-        <v>1.053899316379704</v>
+        <v>1.028982280292791</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038597161323086</v>
+        <v>1.050531603729955</v>
       </c>
       <c r="J9">
-        <v>1.037692383061638</v>
+        <v>1.023715587881371</v>
       </c>
       <c r="K9">
-        <v>1.045508473792348</v>
+        <v>1.036046583711481</v>
       </c>
       <c r="L9">
-        <v>1.045022869343628</v>
+        <v>1.029080802268248</v>
       </c>
       <c r="M9">
-        <v>1.057004588954001</v>
+        <v>1.041622011332285</v>
       </c>
       <c r="N9">
-        <v>1.0165382891019</v>
+        <v>1.011802007157677</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030535837085413</v>
+        <v>0.9913283269877361</v>
       </c>
       <c r="D10">
-        <v>1.041321438669748</v>
+        <v>1.018118790085993</v>
       </c>
       <c r="E10">
-        <v>1.040722636899544</v>
+        <v>1.010769141128846</v>
       </c>
       <c r="F10">
-        <v>1.052665648585174</v>
+        <v>1.023061055701846</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038322728244628</v>
+        <v>1.048449849495951</v>
       </c>
       <c r="J10">
-        <v>1.036905647528477</v>
+        <v>1.019890273145229</v>
       </c>
       <c r="K10">
-        <v>1.044748131494854</v>
+        <v>1.032168432907127</v>
       </c>
       <c r="L10">
-        <v>1.044151446475254</v>
+        <v>1.024946640126357</v>
       </c>
       <c r="M10">
-        <v>1.056052740746718</v>
+        <v>1.037026055668334</v>
       </c>
       <c r="N10">
-        <v>1.016276681337881</v>
+        <v>1.010525489446598</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029960088454666</v>
+        <v>0.9883216823924541</v>
       </c>
       <c r="D11">
-        <v>1.040869088677685</v>
+        <v>1.015809809230139</v>
       </c>
       <c r="E11">
-        <v>1.040222757418995</v>
+        <v>1.008343926151005</v>
       </c>
       <c r="F11">
-        <v>1.052132195095098</v>
+        <v>1.020436203333604</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038201977655931</v>
+        <v>1.047509291261738</v>
       </c>
       <c r="J11">
-        <v>1.036564872766003</v>
+        <v>1.018188494649639</v>
       </c>
       <c r="K11">
-        <v>1.044418235072174</v>
+        <v>1.030439610043367</v>
       </c>
       <c r="L11">
-        <v>1.043774276779374</v>
+        <v>1.023110185248533</v>
       </c>
       <c r="M11">
-        <v>1.055640506422541</v>
+        <v>1.034982746192137</v>
       </c>
       <c r="N11">
-        <v>1.016163335555448</v>
+        <v>1.009957591181458</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029746334142614</v>
+        <v>0.9871928134321213</v>
       </c>
       <c r="D12">
-        <v>1.040701094550502</v>
+        <v>1.014943304724106</v>
       </c>
       <c r="E12">
-        <v>1.040037229855151</v>
+        <v>1.007434641656382</v>
       </c>
       <c r="F12">
-        <v>1.051934158758182</v>
+        <v>1.019451644557259</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038156838011599</v>
+        <v>1.047153865856076</v>
       </c>
       <c r="J12">
-        <v>1.036438278111318</v>
+        <v>1.017549263580714</v>
       </c>
       <c r="K12">
-        <v>1.04429559862627</v>
+        <v>1.029789707173861</v>
       </c>
       <c r="L12">
-        <v>1.043634204939841</v>
+        <v>1.022420778448478</v>
       </c>
       <c r="M12">
-        <v>1.055487374175847</v>
+        <v>1.034215434976719</v>
       </c>
       <c r="N12">
-        <v>1.016121224135772</v>
+        <v>1.009744275112268</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029792180421397</v>
+        <v>0.98743551544315</v>
       </c>
       <c r="D13">
-        <v>1.040737128528416</v>
+        <v>1.015129579307698</v>
       </c>
       <c r="E13">
-        <v>1.040077019333564</v>
+        <v>1.007630075051283</v>
       </c>
       <c r="F13">
-        <v>1.051976633123408</v>
+        <v>1.019663275897059</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03816653361491</v>
+        <v>1.047230383048</v>
       </c>
       <c r="J13">
-        <v>1.0364654337864</v>
+        <v>1.017686707711914</v>
       </c>
       <c r="K13">
-        <v>1.044321908982531</v>
+        <v>1.029929468790505</v>
       </c>
       <c r="L13">
-        <v>1.043664249635637</v>
+        <v>1.022568992425111</v>
       </c>
       <c r="M13">
-        <v>1.055520221992031</v>
+        <v>1.03438040866748</v>
       </c>
       <c r="N13">
-        <v>1.016130257612192</v>
+        <v>1.009790141141508</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029942417318884</v>
+        <v>0.9882286193838532</v>
       </c>
       <c r="D14">
-        <v>1.04085520163263</v>
+        <v>1.015738366349808</v>
       </c>
       <c r="E14">
-        <v>1.040207418583648</v>
+        <v>1.008268939091129</v>
       </c>
       <c r="F14">
-        <v>1.052115823052868</v>
+        <v>1.020355017167516</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038198252258856</v>
+        <v>1.047480036388008</v>
       </c>
       <c r="J14">
-        <v>1.036554408726095</v>
+        <v>1.018135802519472</v>
       </c>
       <c r="K14">
-        <v>1.044408099900931</v>
+        <v>1.030386048557622</v>
       </c>
       <c r="L14">
-        <v>1.043762697863356</v>
+        <v>1.02305334870984</v>
       </c>
       <c r="M14">
-        <v>1.055627848659207</v>
+        <v>1.034919492066385</v>
       </c>
       <c r="N14">
-        <v>1.016159854808641</v>
+        <v>1.00994000740114</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030034997103981</v>
+        <v>0.988715659899756</v>
       </c>
       <c r="D15">
-        <v>1.040927954240093</v>
+        <v>1.016112276619297</v>
       </c>
       <c r="E15">
-        <v>1.040287781786991</v>
+        <v>1.008661432678969</v>
       </c>
       <c r="F15">
-        <v>1.05220159746693</v>
+        <v>1.020779940502521</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038217757091094</v>
+        <v>1.047633047469971</v>
       </c>
       <c r="J15">
-        <v>1.036609227075449</v>
+        <v>1.01841155274437</v>
       </c>
       <c r="K15">
-        <v>1.044461191996671</v>
+        <v>1.030666327508918</v>
       </c>
       <c r="L15">
-        <v>1.043823358523946</v>
+        <v>1.02335080441537</v>
       </c>
       <c r="M15">
-        <v>1.055694159715796</v>
+        <v>1.035250524211146</v>
       </c>
       <c r="N15">
-        <v>1.01617808933979</v>
+        <v>1.010032027481582</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030574062179358</v>
+        <v>0.9915262084750573</v>
       </c>
       <c r="D16">
-        <v>1.041351463587483</v>
+        <v>1.018270809555988</v>
       </c>
       <c r="E16">
-        <v>1.040755833180855</v>
+        <v>1.010928930718688</v>
       </c>
       <c r="F16">
-        <v>1.052701067741975</v>
+        <v>1.023233939749596</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038330701699381</v>
+        <v>1.048511431472233</v>
       </c>
       <c r="J16">
-        <v>1.036928261351744</v>
+        <v>1.020002233439024</v>
       </c>
       <c r="K16">
-        <v>1.044770011781809</v>
+        <v>1.032282100235525</v>
       </c>
       <c r="L16">
-        <v>1.044176481523254</v>
+        <v>1.02506751779413</v>
       </c>
       <c r="M16">
-        <v>1.056080097881017</v>
+        <v>1.037160513508508</v>
       </c>
       <c r="N16">
-        <v>1.016284202332231</v>
+        <v>1.010562851559985</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030912387828276</v>
+        <v>0.9932683225878121</v>
       </c>
       <c r="D17">
-        <v>1.041617169167022</v>
+        <v>1.019609436552182</v>
       </c>
       <c r="E17">
-        <v>1.041049694687434</v>
+        <v>1.012336625662237</v>
       </c>
       <c r="F17">
-        <v>1.053014569817539</v>
+        <v>1.024756669890704</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038401035627931</v>
+        <v>1.049051815337327</v>
       </c>
       <c r="J17">
-        <v>1.037128353735063</v>
+        <v>1.020987669928653</v>
       </c>
       <c r="K17">
-        <v>1.044963549716549</v>
+        <v>1.033282160611347</v>
       </c>
       <c r="L17">
-        <v>1.044398030666461</v>
+        <v>1.026131752287375</v>
       </c>
       <c r="M17">
-        <v>1.056322167019607</v>
+        <v>1.038344115841232</v>
       </c>
       <c r="N17">
-        <v>1.016350746350406</v>
+        <v>1.010891699324064</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031109793418153</v>
+        <v>0.9942771320199929</v>
       </c>
       <c r="D18">
-        <v>1.041772167933998</v>
+        <v>1.020384814662972</v>
       </c>
       <c r="E18">
-        <v>1.041221194135593</v>
+        <v>1.013152552411163</v>
       </c>
       <c r="F18">
-        <v>1.053197500849117</v>
+        <v>1.025639003987549</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038441874981573</v>
+        <v>1.049363247861504</v>
       </c>
       <c r="J18">
-        <v>1.037245053241888</v>
+        <v>1.02155809955705</v>
       </c>
       <c r="K18">
-        <v>1.045076373036824</v>
+        <v>1.033860718171828</v>
       </c>
       <c r="L18">
-        <v>1.044527272084308</v>
+        <v>1.026748053068162</v>
       </c>
       <c r="M18">
-        <v>1.056463354240652</v>
+        <v>1.039029378964119</v>
       </c>
       <c r="N18">
-        <v>1.016389553769374</v>
+        <v>1.011082054960118</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031177114765809</v>
+        <v>0.9946198826313836</v>
       </c>
       <c r="D19">
-        <v>1.041825021369264</v>
+        <v>1.020648289928598</v>
       </c>
       <c r="E19">
-        <v>1.041279687074429</v>
+        <v>1.013429898611856</v>
       </c>
       <c r="F19">
-        <v>1.053259887514999</v>
+        <v>1.025938877395313</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03845576870058</v>
+        <v>1.049468805081574</v>
       </c>
       <c r="J19">
-        <v>1.037284842854763</v>
+        <v>1.021751870659154</v>
       </c>
       <c r="K19">
-        <v>1.045114831960907</v>
+        <v>1.03405719252797</v>
       </c>
       <c r="L19">
-        <v>1.044571342662453</v>
+        <v>1.026957449989968</v>
       </c>
       <c r="M19">
-        <v>1.05651149409395</v>
+        <v>1.039262178809493</v>
       </c>
       <c r="N19">
-        <v>1.016402784966382</v>
+        <v>1.011146717222952</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030876081854355</v>
+        <v>0.9930821731302784</v>
       </c>
       <c r="D20">
-        <v>1.041588659680862</v>
+        <v>1.019466377773713</v>
       </c>
       <c r="E20">
-        <v>1.041018156289139</v>
+        <v>1.012186129488023</v>
       </c>
       <c r="F20">
-        <v>1.052980926697827</v>
+        <v>1.024593903256796</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038393508616826</v>
+        <v>1.048994227875509</v>
       </c>
       <c r="J20">
-        <v>1.037106886844187</v>
+        <v>1.020882394846853</v>
       </c>
       <c r="K20">
-        <v>1.044942791545941</v>
+        <v>1.033175358102237</v>
       </c>
       <c r="L20">
-        <v>1.044374258921368</v>
+        <v>1.026018032340425</v>
       </c>
       <c r="M20">
-        <v>1.05629619606759</v>
+        <v>1.038217657657721</v>
       </c>
       <c r="N20">
-        <v>1.016343607484465</v>
+        <v>1.010856568317055</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029898173404132</v>
+        <v>0.9879954079993659</v>
       </c>
       <c r="D21">
-        <v>1.040820431236613</v>
+        <v>1.015559340986506</v>
       </c>
       <c r="E21">
-        <v>1.040169015101207</v>
+        <v>1.008081046016269</v>
       </c>
       <c r="F21">
-        <v>1.052074831979369</v>
+        <v>1.020151584319704</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038188919838376</v>
+        <v>1.047406688487597</v>
       </c>
       <c r="J21">
-        <v>1.036528208248291</v>
+        <v>1.018003754155795</v>
       </c>
       <c r="K21">
-        <v>1.044382721523917</v>
+        <v>1.030251813352281</v>
       </c>
       <c r="L21">
-        <v>1.043733706591061</v>
+        <v>1.022910920961684</v>
       </c>
       <c r="M21">
-        <v>1.055596155553072</v>
+        <v>1.034760978346976</v>
       </c>
       <c r="N21">
-        <v>1.016151139437491</v>
+        <v>1.009895941841136</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029283928111511</v>
+        <v>0.9847270248796977</v>
       </c>
       <c r="D22">
-        <v>1.040337583057467</v>
+        <v>1.013051453098281</v>
       </c>
       <c r="E22">
-        <v>1.039635994690859</v>
+        <v>1.005450914185041</v>
       </c>
       <c r="F22">
-        <v>1.051505783463276</v>
+        <v>1.017302917164002</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038058623788829</v>
+        <v>1.046373380081243</v>
       </c>
       <c r="J22">
-        <v>1.036164279629479</v>
+        <v>1.016152515094261</v>
       </c>
       <c r="K22">
-        <v>1.044030015662946</v>
+        <v>1.028368717515469</v>
       </c>
       <c r="L22">
-        <v>1.043331115765947</v>
+        <v>1.020915155320625</v>
       </c>
       <c r="M22">
-        <v>1.055155954869089</v>
+        <v>1.0325392201822</v>
       </c>
       <c r="N22">
-        <v>1.016030070953026</v>
+        <v>1.00927817430061</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029609493357416</v>
+        <v>0.9864665076960467</v>
       </c>
       <c r="D23">
-        <v>1.040593533522712</v>
+        <v>1.014385929987587</v>
       </c>
       <c r="E23">
-        <v>1.039918475981007</v>
+        <v>1.006849983614792</v>
       </c>
       <c r="F23">
-        <v>1.0518073846637</v>
+        <v>1.018818466648689</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038127853537545</v>
+        <v>1.046924551880176</v>
       </c>
       <c r="J23">
-        <v>1.03635721322827</v>
+        <v>1.017137912278476</v>
       </c>
       <c r="K23">
-        <v>1.044217045045921</v>
+        <v>1.029371346187524</v>
       </c>
       <c r="L23">
-        <v>1.043544522103454</v>
+        <v>1.021977255152108</v>
       </c>
       <c r="M23">
-        <v>1.055389318484182</v>
+        <v>1.033721722820806</v>
       </c>
       <c r="N23">
-        <v>1.016094256822639</v>
+        <v>1.009607004740271</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03089248675754</v>
+        <v>0.9931663086866857</v>
       </c>
       <c r="D24">
-        <v>1.041601541837559</v>
+        <v>1.019531036602211</v>
       </c>
       <c r="E24">
-        <v>1.041032406840449</v>
+        <v>1.012254148143529</v>
       </c>
       <c r="F24">
-        <v>1.052996128357638</v>
+        <v>1.024667468536528</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038396910321587</v>
+        <v>1.049020260790321</v>
       </c>
       <c r="J24">
-        <v>1.037116586842257</v>
+        <v>1.020929977573581</v>
       </c>
       <c r="K24">
-        <v>1.044952171467876</v>
+        <v>1.033223632249692</v>
       </c>
       <c r="L24">
-        <v>1.044385000301847</v>
+        <v>1.026069431216949</v>
       </c>
       <c r="M24">
-        <v>1.056307931246605</v>
+        <v>1.038274814441187</v>
       </c>
       <c r="N24">
-        <v>1.01634683325108</v>
+        <v>1.010872446998575</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032383911339775</v>
+        <v>1.000655033043185</v>
       </c>
       <c r="D25">
-        <v>1.042771947336801</v>
+        <v>1.025290138843369</v>
       </c>
       <c r="E25">
-        <v>1.042328781786001</v>
+        <v>1.018324209328085</v>
       </c>
       <c r="F25">
-        <v>1.054378360676633</v>
+        <v>1.031226765263235</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038701866163696</v>
+        <v>1.051305096028276</v>
       </c>
       <c r="J25">
-        <v>1.037997361765189</v>
+        <v>1.025160372804506</v>
       </c>
       <c r="K25">
-        <v>1.045802725774883</v>
+        <v>1.037508145292304</v>
       </c>
       <c r="L25">
-        <v>1.045360933339335</v>
+        <v>1.030644572583809</v>
       </c>
       <c r="M25">
-        <v>1.05737362571549</v>
+        <v>1.043358921671911</v>
       </c>
       <c r="N25">
-        <v>1.016639674334007</v>
+        <v>1.012284111481059</v>
       </c>
     </row>
   </sheetData>
